--- a/app/src/main/node/Accettate.xlsx
+++ b/app/src/main/node/Accettate.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>EMAIL</t>
   </si>
@@ -22,13 +22,40 @@
     <t>COGNOME</t>
   </si>
   <si>
-    <t>m.fresolone2@studenti.unisa.it</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Rossi</t>
+    <t>m.costabile21@studenti.unisa.it</t>
+  </si>
+  <si>
+    <t>Michele</t>
+  </si>
+  <si>
+    <t>Costabile</t>
+  </si>
+  <si>
+    <t>p.prova@studenti.unisa.it</t>
+  </si>
+  <si>
+    <t>PRIMO</t>
+  </si>
+  <si>
+    <t>PROVA</t>
+  </si>
+  <si>
+    <t>t.prova@studenti.unisa.it</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>prova</t>
+  </si>
+  <si>
+    <t>f.carino@studenti.unisa.it</t>
+  </si>
+  <si>
+    <t>Fiorenzo</t>
+  </si>
+  <si>
+    <t>Carino</t>
   </si>
 </sst>
 </file>
@@ -405,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -428,6 +455,50 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
